--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/20/seed3/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.2959</v>
+        <v>16.369</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>-8.23</v>
       </c>
       <c r="E4" t="n">
-        <v>16.13909999999999</v>
+        <v>16.11029999999999</v>
       </c>
     </row>
     <row r="5">
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-6.848199999999996</v>
+        <v>-6.903800000000003</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.43090000000001</v>
+        <v>-22.43020000000002</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.88779999999999</v>
+        <v>-21.85209999999999</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -627,12 +627,12 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>16.5753</v>
+        <v>16.5645</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.5494</v>
+        <v>-21.5429</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -675,10 +675,10 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.358700000000001</v>
+        <v>-8.111300000000002</v>
       </c>
       <c r="E14" t="n">
-        <v>16.60079999999998</v>
+        <v>16.44009999999998</v>
       </c>
     </row>
     <row r="15">
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-7.944599999999998</v>
+        <v>-7.906200000000002</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.55170000000001</v>
+        <v>-22.41870000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -743,10 +743,10 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.178899999999995</v>
+        <v>-8.149599999999994</v>
       </c>
       <c r="E18" t="n">
-        <v>16.5197</v>
+        <v>16.5745</v>
       </c>
     </row>
     <row r="19">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.48020000000001</v>
+        <v>16.47450000000001</v>
       </c>
     </row>
     <row r="20">
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.942299999999996</v>
+        <v>-7.843399999999998</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -797,7 +797,7 @@
         <v>-6.74</v>
       </c>
       <c r="E21" t="n">
-        <v>16.75190000000001</v>
+        <v>16.636</v>
       </c>
     </row>
     <row r="22">
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.67119999999998</v>
+        <v>-21.68639999999998</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.49219999999999</v>
+        <v>16.45739999999999</v>
       </c>
     </row>
     <row r="28">
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.851500000000001</v>
+        <v>-6.928600000000001</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.982800000000005</v>
+        <v>-8.016399999999999</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -964,10 +964,10 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-7.6262</v>
+        <v>-7.594099999999998</v>
       </c>
       <c r="E31" t="n">
-        <v>16.91190000000001</v>
+        <v>16.78170000000001</v>
       </c>
     </row>
     <row r="32">
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.412099999999999</v>
+        <v>-8.499299999999998</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.2686</v>
+        <v>-18.9196</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1086,7 +1086,7 @@
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.09639999999999</v>
+        <v>16.24929999999999</v>
       </c>
     </row>
     <row r="39">
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.882799999999995</v>
+        <v>-8.222799999999999</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.39960000000001</v>
+        <v>16.3059</v>
       </c>
     </row>
     <row r="43">
@@ -1185,10 +1185,10 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.381600000000001</v>
+        <v>-7.3085</v>
       </c>
       <c r="E44" t="n">
-        <v>16.6832</v>
+        <v>16.83280000000001</v>
       </c>
     </row>
     <row r="45">
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.36149999999999</v>
+        <v>16.35869999999998</v>
       </c>
     </row>
     <row r="48">
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-7.895599999999997</v>
+        <v>-7.840799999999997</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1355,7 +1355,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-8.490000000000004</v>
+        <v>-8.229600000000003</v>
       </c>
       <c r="E54" t="n">
         <v>15.77</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.3023</v>
+        <v>-22.34280000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.28800000000001</v>
+        <v>16.4225</v>
       </c>
     </row>
     <row r="57">
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.39530000000001</v>
+        <v>16.33370000000001</v>
       </c>
     </row>
     <row r="59">
@@ -1545,7 +1545,7 @@
         <v>-7.07</v>
       </c>
       <c r="E65" t="n">
-        <v>17.21970000000001</v>
+        <v>17.22220000000001</v>
       </c>
     </row>
     <row r="66">
@@ -1584,7 +1584,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.567</v>
+        <v>-21.5448</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1593,7 +1593,7 @@
         <v>-9.98</v>
       </c>
       <c r="D68" t="n">
-        <v>-6.879599999999999</v>
+        <v>-6.936599999999998</v>
       </c>
       <c r="E68" t="n">
         <v>17.66</v>
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>17.51710000000001</v>
+        <v>17.21200000000001</v>
       </c>
     </row>
     <row r="74">
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.680600000000002</v>
+        <v>-7.823200000000001</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-21.59149999999999</v>
+        <v>-21.35739999999998</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.81869999999997</v>
+        <v>-21.13639999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.71969999999999</v>
+        <v>-21.70849999999999</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-20.3216</v>
+        <v>-20.18069999999999</v>
       </c>
       <c r="B80" t="n">
         <v>11.21</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-21.81220000000001</v>
+        <v>-21.76600000000001</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.1127</v>
+        <v>-22.08280000000001</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-22.11410000000002</v>
+        <v>-22.08620000000001</v>
       </c>
       <c r="B84" t="n">
         <v>4.99</v>
@@ -1916,7 +1916,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-8.151899999999992</v>
+        <v>-8.059399999999995</v>
       </c>
       <c r="E87" t="n">
         <v>16.53</v>
@@ -1933,7 +1933,7 @@
         <v>-14.65</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.263499999999994</v>
+        <v>-7.143599999999998</v>
       </c>
       <c r="E88" t="n">
         <v>17.32</v>
@@ -1970,7 +1970,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>16.28099999999999</v>
+        <v>16.37499999999999</v>
       </c>
     </row>
     <row r="91">
@@ -2001,10 +2001,10 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.907900000000001</v>
+        <v>-7.048299999999999</v>
       </c>
       <c r="E92" t="n">
-        <v>17.43500000000001</v>
+        <v>17.4271</v>
       </c>
     </row>
     <row r="93">
@@ -2038,7 +2038,7 @@
         <v>-5.14</v>
       </c>
       <c r="E94" t="n">
-        <v>19.01120000000002</v>
+        <v>19.28330000000002</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>18.38210000000002</v>
+        <v>18.20770000000002</v>
       </c>
     </row>
     <row r="96">
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-8.056600000000001</v>
+        <v>-8.009800000000002</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.333800000000005</v>
+        <v>-8.279400000000006</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-21.33149999999999</v>
+        <v>-21.47049999999998</v>
       </c>
       <c r="B101" t="n">
         <v>7.61</v>
@@ -2154,15 +2154,15 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.956599999999997</v>
+        <v>-7.858100000000003</v>
       </c>
       <c r="E101" t="n">
-        <v>16.5996</v>
+        <v>16.5814</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-19.5418</v>
+        <v>-19.1142</v>
       </c>
       <c r="B102" t="n">
         <v>9.01</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-8.285999999999998</v>
+        <v>-8.235599999999998</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
